--- a/文書/06.テスト/01.処理シナリオ/0000_処理シナリオ雛形.xlsx
+++ b/文書/06.テスト/01.処理シナリオ/0000_処理シナリオ雛形.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/06.Kai9Auto/文書/06.テスト/01.処理シナリオ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1124" documentId="13_ncr:1_{9E09D2C6-3D12-435C-A5A5-785144A9DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC12813-5A56-4418-98E5-314B96088A75}"/>
+  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{9E09D2C6-3D12-435C-A5A5-785144A9DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45BC16C-4E32-49DF-BFAC-E5F907841C79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実行順" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="296">
   <si>
     <t>#R1#</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>実行時刻</t>
-  </si>
-  <si>
-    <t>&lt;実行タイミング&gt;&lt;開始時間&gt;00:00&lt;/開始時間&gt;&lt;トリガ&gt;&lt;トリガタイプ&gt;随時&lt;/トリガタイプ&gt;&lt;/トリガ&gt;&lt;/実行タイミング&gt;</t>
   </si>
   <si>
     <t>備考</t>
@@ -943,10 +940,6 @@
   </si>
   <si>
     <t>ファイル監視(APP)</t>
-  </si>
-  <si>
-    <t>雛形107</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>想定相違</t>
@@ -966,6 +959,10 @@
     <rPh sb="2" eb="4">
       <t>ソウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雛形100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1698,8 +1695,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1725,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F1" s="35"/>
       <c r="I1" s="38" t="s">
@@ -1746,14 +1743,12 @@
       <c r="B2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="35"/>
@@ -1762,12 +1757,12 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5">
       <c r="B5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1775,7 +1770,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="21"/>
@@ -1783,42 +1778,42 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="H6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="I6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
@@ -1828,7 +1823,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>'1'!$D$3</f>
@@ -1843,7 +1838,7 @@
       </c>
       <c r="K7" s="18" t="str">
         <f>'1'!$D$5</f>
-        <v>雛形107(1/3)</v>
+        <v>雛形100(1/3)</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1868,7 +1863,7 @@
       </c>
       <c r="K8" s="18" t="str">
         <f>'2'!$D$5</f>
-        <v>雛形107(2/3 実働編)</v>
+        <v>雛形100(2/3 実働編)</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1880,7 +1875,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>'3'!$D$3</f>
@@ -1895,7 +1890,7 @@
       </c>
       <c r="K9" s="18" t="str">
         <f>'3'!$D$5</f>
-        <v>雛形107(3/3)</v>
+        <v>雛形100(3/3)</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1918,7 +1913,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="18" t="str">
         <f>'4'!$D$4</f>
-        <v>雛形107</v>
+        <v>雛形100</v>
       </c>
       <c r="K10" s="18" t="str">
         <f>'4'!$D$5</f>
@@ -2095,12 +2090,12 @@
     </row>
     <row r="25" spans="2:11">
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2114,7 @@
       <selection activeCell="N21" sqref="N21"/>
       <selection pane="topRight" activeCell="N21" sqref="N21"/>
       <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2142,13 +2137,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="8.25" customHeight="1">
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="24.75">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="str" cm="1">
@@ -2172,19 +2167,19 @@
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2200,19 +2195,19 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2228,20 +2223,20 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="str">
         <f>実行順!E1&amp;"(1/3)"</f>
-        <v>雛形107(1/3)</v>
+        <v>雛形100(1/3)</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2257,58 +2252,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2317,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
@@ -2341,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8">
         <v>108</v>
@@ -2350,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8">
         <f>D8</f>
@@ -2358,22 +2353,22 @@
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2382,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
@@ -2406,16 +2401,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" ref="G10:G19" si="1">D10</f>
@@ -2425,18 +2420,18 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2445,16 +2440,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="45">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2464,18 +2459,18 @@
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
       <c r="K11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="43"/>
       <c r="R11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2484,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="45">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2503,18 +2498,18 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
       <c r="K12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2523,16 +2518,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="45">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2542,18 +2537,18 @@
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="43"/>
       <c r="R13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2562,16 +2557,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="45">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2581,18 +2576,18 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2601,16 +2596,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="45">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2620,18 +2615,18 @@
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="43"/>
       <c r="R15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2640,16 +2635,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="45">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2659,18 +2654,18 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -2679,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="45">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2698,18 +2693,18 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -2718,16 +2713,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="45">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2737,18 +2732,18 @@
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -2757,16 +2752,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="45">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2776,18 +2771,18 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -2796,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="48"/>
@@ -2820,28 +2815,28 @@
         <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="45">
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="8" t="str">
         <f>"[TD12]"&amp;D21</f>
         <v>[TD12]ファイル.csv</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2850,7 +2845,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -2859,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="48"/>
@@ -2883,7 +2878,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="8" t="str">
         <f t="shared" ref="D23:D32" si="2">D10</f>
@@ -2893,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" ref="G23:G32" si="3">D23</f>
         <v>テーブルA</v>
       </c>
       <c r="H23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>82</v>
       </c>
       <c r="J23" s="41"/>
       <c r="K23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -2916,7 +2911,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="43"/>
       <c r="R23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -2925,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2935,21 +2930,21 @@
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルB</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -2958,7 +2953,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -2967,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2977,21 +2972,21 @@
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルC</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -3000,7 +2995,7 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -3009,7 +3004,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3019,21 +3014,21 @@
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルD</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3049,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3059,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルE</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="41"/>
       <c r="K27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3082,7 +3077,7 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="43"/>
       <c r="R27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -3091,7 +3086,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3101,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルF</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="41"/>
       <c r="K28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3124,7 +3119,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -3133,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3143,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルG</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J29" s="41"/>
       <c r="K29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3166,7 +3161,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -3175,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3185,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルH</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" s="41"/>
       <c r="K30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3215,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3225,21 +3220,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルI</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -3248,7 +3243,7 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -3257,7 +3252,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3267,21 +3262,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" si="3"/>
         <v>テーブルJ</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="41"/>
       <c r="K32" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -3293,10 +3288,10 @@
     </row>
     <row r="34" spans="1:18" ht="24.75">
       <c r="A34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="2"/>
@@ -3317,37 +3312,37 @@
     </row>
     <row r="36" spans="1:18">
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3361,7 @@
       <selection activeCell="N21" sqref="N21"/>
       <selection pane="topRight" activeCell="N21" sqref="N21"/>
       <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3390,13 +3385,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="8.25" customHeight="1">
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="24.75">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="str" cm="1">
@@ -3420,14 +3415,14 @@
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3446,10 +3441,10 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -3472,15 +3467,15 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="str">
         <f>実行順!E1&amp;"(2/3 実働編)"</f>
-        <v>雛形107(2/3 実働編)</v>
+        <v>雛形100(2/3 実働編)</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3499,58 +3494,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3559,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="45">
         <v>1</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G7" s="8">
         <v>108</v>
@@ -3580,18 +3575,18 @@
       <c r="I7" s="8"/>
       <c r="J7" s="41"/>
       <c r="K7" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3600,34 +3595,34 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="45">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="41"/>
       <c r="K8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3636,42 +3631,42 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E9" s="45">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="41"/>
       <c r="K9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24.75">
@@ -3696,37 +3691,37 @@
     </row>
     <row r="13" spans="1:18">
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3768,13 +3763,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="8.25" customHeight="1">
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="24.75">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="str" cm="1">
@@ -3798,19 +3793,19 @@
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3826,19 +3821,19 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3854,20 +3849,20 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="str">
         <f>実行順!E1&amp;"(3/3)"</f>
-        <v>雛形107(3/3)</v>
+        <v>雛形100(3/3)</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3883,58 +3878,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3943,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
@@ -3967,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="8">
         <v>108</v>
@@ -3976,14 +3971,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="8">
         <f>D8</f>
         <v>108</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I8" s="8" t="str">
         <f>",1,"&amp;'1'!B8</f>
@@ -3991,18 +3986,18 @@
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4011,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
@@ -4035,23 +4030,23 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" ref="G10:G19" si="1">D10</f>
         <v>テーブルA</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="8" t="str">
         <f>",1,"&amp;'1'!B10</f>
@@ -4059,12 +4054,12 @@
       </c>
       <c r="J10" s="41"/>
       <c r="K10" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -4077,23 +4072,23 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルB</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="8" t="str">
         <f>",1,"&amp;'1'!B11</f>
@@ -4101,12 +4096,12 @@
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -4119,23 +4114,23 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="45">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルC</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="8" t="str">
         <f>",1,"&amp;'1'!B12</f>
@@ -4143,12 +4138,12 @@
       </c>
       <c r="J12" s="41"/>
       <c r="K12" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -4161,23 +4156,23 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="45">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルD</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="8" t="str">
         <f>",1,"&amp;'1'!B13</f>
@@ -4185,12 +4180,12 @@
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -4203,23 +4198,23 @@
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルE</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="8" t="str">
         <f>",1,"&amp;'1'!B14</f>
@@ -4227,12 +4222,12 @@
       </c>
       <c r="J14" s="41"/>
       <c r="K14" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -4245,23 +4240,23 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="45">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルF</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15" s="8" t="str">
         <f>",1,"&amp;'1'!B15</f>
@@ -4269,12 +4264,12 @@
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -4287,23 +4282,23 @@
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="45">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルG</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="8" t="str">
         <f>",1,"&amp;'1'!B16</f>
@@ -4311,12 +4306,12 @@
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -4329,23 +4324,23 @@
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="45">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="45">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルH</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="8" t="str">
         <f>",1,"&amp;'1'!B17</f>
@@ -4353,12 +4348,12 @@
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -4371,23 +4366,23 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="45">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルI</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="8" t="str">
         <f>",1,"&amp;'1'!B18</f>
@@ -4395,12 +4390,12 @@
       </c>
       <c r="J18" s="41"/>
       <c r="K18" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -4413,23 +4408,23 @@
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="45">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルJ</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="8" t="str">
         <f>",1,"&amp;'1'!B19</f>
@@ -4437,12 +4432,12 @@
       </c>
       <c r="J19" s="41"/>
       <c r="K19" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -4451,10 +4446,10 @@
     </row>
     <row r="21" spans="1:18" ht="24.75">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="2"/>
@@ -4475,47 +4470,47 @@
     </row>
     <row r="23" spans="1:18">
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4529,11 +4524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E225E86-E8FD-4909-B245-A5E9EE1D8617}">
   <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4556,13 +4551,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="24.75">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="str" cm="1">
@@ -4586,19 +4581,19 @@
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4614,20 +4609,20 @@
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="str">
         <f>実行順!E1</f>
-        <v>雛形107</v>
+        <v>雛形100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4643,19 +4638,19 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4671,58 +4666,58 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4731,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
@@ -4755,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8">
         <v>108</v>
@@ -4764,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" ref="G8:G35" si="1">D8</f>
@@ -4772,16 +4767,16 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -4794,16 +4789,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="45">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4813,18 +4808,18 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4834,13 +4829,13 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="45">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4850,18 +4845,18 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4871,13 +4866,13 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="45">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4887,18 +4882,18 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4908,13 +4903,13 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="45">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4924,18 +4919,18 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4945,13 +4940,13 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="45">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4961,18 +4956,18 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4982,13 +4977,13 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="45">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4998,18 +4993,18 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5019,13 +5014,13 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="45">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5035,18 +5030,18 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5056,13 +5051,13 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="45">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5072,18 +5067,18 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -5093,13 +5088,13 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="45">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5109,18 +5104,18 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -5130,13 +5125,13 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="45">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5146,18 +5141,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -5166,16 +5161,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="E19" s="45">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5185,18 +5180,18 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -5205,16 +5200,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="E20" s="45">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5224,18 +5219,18 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -5244,16 +5239,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="E21" s="45">
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5263,18 +5258,18 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -5283,16 +5278,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="E22" s="45">
         <v>0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5302,18 +5297,18 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -5322,16 +5317,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="45">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5341,18 +5336,18 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -5361,16 +5356,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="E24" s="45">
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5380,18 +5375,18 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -5400,16 +5395,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="E25" s="45">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5419,18 +5414,18 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -5439,30 +5434,30 @@
         <v>20</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="45">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルA</v>
       </c>
       <c r="H26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -5471,7 +5466,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -5481,27 +5476,27 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="45">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルB</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -5510,7 +5505,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -5520,27 +5515,27 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="45">
         <v>0</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルC</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -5549,7 +5544,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -5559,27 +5554,27 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="45">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルD</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -5596,27 +5591,27 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="45">
         <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルE</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -5625,7 +5620,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -5635,27 +5630,27 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="45">
         <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルF</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -5664,7 +5659,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -5674,27 +5669,27 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="45">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルG</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -5711,27 +5706,27 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="45">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルH</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -5740,7 +5735,7 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:18">
@@ -5750,27 +5745,27 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="45">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルI</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -5779,7 +5774,7 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:18">
@@ -5789,27 +5784,27 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="45">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>テーブルJ</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -5825,7 +5820,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="47"/>
       <c r="E36" s="48"/>
@@ -5849,16 +5844,16 @@
         <v>31</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="E37" s="45">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="G37" s="8" t="str">
         <f>"[TD12]"&amp;D37</f>
@@ -5870,7 +5865,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -5879,7 +5874,7 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:18">
@@ -5888,16 +5883,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="45">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="8">
         <v>1061</v>
@@ -5912,7 +5907,7 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -5921,7 +5916,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:18">
@@ -5930,28 +5925,28 @@
         <v>33</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="E39" s="45">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="8" t="str">
         <f>I38</f>
         <v>[CT12]ファイルフォーマットチェック_異常32.log</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -5960,7 +5955,7 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:18">
@@ -5969,7 +5964,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="45"/>
@@ -5993,16 +5988,16 @@
         <v>35</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="45">
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G41" s="8" t="str">
         <f>"[TD12]"&amp;D41</f>
@@ -6014,7 +6009,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -6030,16 +6025,16 @@
         <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="45">
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G42" s="8">
         <v>1061</v>
@@ -6054,7 +6049,7 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -6070,28 +6065,28 @@
         <v>37</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E43" s="45">
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="8" t="str">
         <f>I42</f>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -6100,7 +6095,7 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:18">
@@ -6109,28 +6104,28 @@
         <v>38</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="45">
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" s="8" t="str">
         <f t="shared" ref="G44:G52" si="3">G43</f>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -6139,7 +6134,7 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:18">
@@ -6148,28 +6143,28 @@
         <v>39</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="E45" s="45">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -6178,7 +6173,7 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:18">
@@ -6187,28 +6182,28 @@
         <v>40</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46" s="45">
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -6224,28 +6219,28 @@
         <v>41</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="45">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G47" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -6261,28 +6256,28 @@
         <v>42</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="E48" s="45">
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G48" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -6298,28 +6293,28 @@
         <v>43</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" s="45">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G49" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -6335,28 +6330,28 @@
         <v>44</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="E50" s="45">
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G50" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -6372,28 +6367,28 @@
         <v>45</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="45">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G51" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -6409,28 +6404,28 @@
         <v>46</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="E52" s="45">
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="8" t="str">
         <f t="shared" si="3"/>
         <v>[CT12]ファイルフォーマットチェック_正常36.log</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -6446,7 +6441,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" s="47"/>
       <c r="E53" s="48"/>
@@ -6470,16 +6465,16 @@
         <v>48</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="45">
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G54" s="8" t="str">
         <f>"[TD12]"&amp;D54</f>
@@ -6491,7 +6486,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -6507,16 +6502,16 @@
         <v>49</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="45">
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G55" s="8">
         <v>1061</v>
@@ -6531,7 +6526,7 @@
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -6547,28 +6542,28 @@
         <v>50</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="E56" s="45">
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G56" s="8" t="str">
         <f>I55</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -6584,28 +6579,28 @@
         <v>51</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="45">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G57" s="8" t="str">
         <f>G56</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -6621,28 +6616,28 @@
         <v>52</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E58" s="45">
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="8" t="str">
         <f>G57</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -6658,28 +6653,28 @@
         <v>53</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E59" s="45">
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="8" t="str">
         <f>G58</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -6695,28 +6690,28 @@
         <v>54</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" s="45">
         <v>1</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="8" t="str">
         <f>G59</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -6732,28 +6727,28 @@
         <v>55</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" s="45">
         <v>1</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61" s="8" t="str">
         <f>G60</f>
         <v>[CT12]ファイルフォーマットチェック_異常49.log</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -6769,10 +6764,10 @@
         <v>56</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="E62" s="45"/>
       <c r="F62" s="8"/>
@@ -6795,16 +6790,16 @@
         <v>57</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E63" s="45">
         <v>0</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G63" s="8" t="str">
         <f>"[TD12]"&amp;D63</f>
@@ -6816,7 +6811,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -6825,7 +6820,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:18">
@@ -6834,16 +6829,16 @@
         <v>58</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="45">
         <v>0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="8" t="str">
         <f>"[TD12]"&amp;D64</f>
@@ -6855,7 +6850,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -6864,7 +6859,7 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:18">
@@ -6873,16 +6868,16 @@
         <v>59</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="45">
         <v>1</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65" s="8">
         <v>1061</v>
@@ -6893,7 +6888,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -6909,16 +6904,16 @@
         <v>60</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="45">
         <v>1</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -6929,7 +6924,7 @@
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -6945,16 +6940,16 @@
         <v>61</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="45">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="E67" s="45">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="G67" s="8">
         <v>1439</v>
@@ -6966,7 +6961,7 @@
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -6975,7 +6970,7 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -6984,28 +6979,28 @@
         <v>62</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="45">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="45">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="G68" s="8" t="str">
         <f>D68</f>
         <v>テーブルA</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -7014,7 +7009,7 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="2:18">
@@ -7023,28 +7018,28 @@
         <v>63</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="45">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="45">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="G69" s="8" t="str">
         <f>D69</f>
         <v>テーブルB</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -7053,7 +7048,7 @@
       <c r="P69" s="12"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="2:18">
@@ -7062,16 +7057,16 @@
         <v>64</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="45">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="45">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="G70" s="8" t="str">
         <f>D70</f>
@@ -7082,11 +7077,11 @@
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -7095,7 +7090,7 @@
       <c r="P70" s="12"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="2:18">
@@ -7104,16 +7099,16 @@
         <v>65</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="45">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="45">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="G71" s="8" t="str">
         <f>H70</f>
@@ -7126,7 +7121,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -7135,7 +7130,7 @@
       <c r="P71" s="12"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="2:18">
@@ -7144,28 +7139,28 @@
         <v>66</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="E72" s="45">
         <v>1</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G72" s="8" t="str">
         <f>H70</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -7181,28 +7176,28 @@
         <v>67</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E73" s="45">
         <v>1</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G73" s="8" t="str">
         <f>I66</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -7218,28 +7213,28 @@
         <v>68</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="E74" s="45">
         <v>1</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" s="8" t="str">
         <f>G73</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -7255,28 +7250,28 @@
         <v>69</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E75" s="45">
         <v>1</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" s="8" t="str">
         <f>H70</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -7292,28 +7287,28 @@
         <v>70</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E76" s="45">
         <v>1</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G76" s="8" t="str">
         <f>G75</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -7329,28 +7324,28 @@
         <v>71</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="E77" s="45">
         <v>1</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G77" s="8" t="str">
         <f>I66</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -7366,28 +7361,28 @@
         <v>72</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="E78" s="45">
         <v>1</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G78" s="8" t="str">
         <f>G76</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -7403,28 +7398,28 @@
         <v>73</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="45">
         <v>1</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" s="8" t="str">
         <f>G78</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -7440,28 +7435,28 @@
         <v>74</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" s="45">
         <v>1</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G80" s="8" t="str">
         <f>G79</f>
         <v>[CT12]確認テーブルA.csv</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -7477,28 +7472,28 @@
         <v>75</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" s="45">
         <v>1</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G81" s="8" t="str">
         <f>G77</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -7514,28 +7509,28 @@
         <v>76</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E82" s="45">
         <v>1</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G82" s="8" t="str">
         <f>G81</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -7551,28 +7546,28 @@
         <v>77</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E83" s="45">
         <v>1</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G83" s="8" t="str">
         <f>G82</f>
         <v>[CT12]個人取込_異常60.log</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -7588,30 +7583,30 @@
         <v>78</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="45">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="E84" s="45">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H84" s="8" t="str">
         <f>"[CT12]確認"&amp;G84&amp;".csv"</f>
         <v>[CT12]確認USER_A.csv</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -7620,7 +7615,7 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="2:18">
@@ -7629,7 +7624,7 @@
         <v>79</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="48"/>
@@ -7653,16 +7648,16 @@
         <v>80</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E86" s="45">
         <v>0</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G86" s="8" t="str">
         <f>"[TD12]"&amp;D87</f>
@@ -7674,7 +7669,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -7690,16 +7685,16 @@
         <v>81</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E87" s="45">
         <v>1</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G87" s="8">
         <v>1061</v>
@@ -7714,7 +7709,7 @@
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -7731,25 +7726,25 @@
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E88" s="45">
         <v>1</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G88" s="8">
         <f>I88</f>
         <v>0</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -7765,7 +7760,7 @@
         <v>83</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="45"/>
@@ -7789,16 +7784,16 @@
         <v>84</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" s="45">
         <v>1</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8">
@@ -7811,7 +7806,7 @@
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -7828,25 +7823,25 @@
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E91" s="45">
         <v>1</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G91" s="8">
         <f>I91</f>
         <v>0</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -7862,16 +7857,16 @@
         <v>86</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E92" s="45">
         <v>1</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G92" s="8">
         <v>1061</v>
@@ -7884,7 +7879,7 @@
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -7901,25 +7896,25 @@
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E93" s="45">
         <v>1</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" s="8">
         <f>I93</f>
         <v>0</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -7935,7 +7930,7 @@
         <v>88</v>
       </c>
       <c r="C94" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="48"/>
@@ -7959,7 +7954,7 @@
         <v>89</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8">
         <v>102</v>
@@ -7968,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G95" s="8" t="str">
         <f>"DELETE FROM E_FORMAT_CHECK1_A WHERE FC_ID1 = " &amp;D96</f>
@@ -7978,7 +7973,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -7987,7 +7982,7 @@
       <c r="P95" s="12"/>
       <c r="Q95" s="13"/>
       <c r="R95" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="2:18">
@@ -7996,7 +7991,7 @@
         <v>90</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8">
         <v>102</v>
@@ -8005,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G96" s="8" t="str">
         <f>"DELETE FROM E_FORMAT_CHECK2_A WHERE FC_ID1 = " &amp;D97</f>
@@ -8015,7 +8010,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -8024,7 +8019,7 @@
       <c r="P96" s="12"/>
       <c r="Q96" s="13"/>
       <c r="R96" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="2:18">
@@ -8033,16 +8028,16 @@
         <v>91</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E97" s="45">
         <v>1</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G97" s="8">
         <v>1071</v>
@@ -8057,7 +8052,7 @@
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -8073,16 +8068,16 @@
         <v>92</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="E98" s="45">
         <v>1</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G98" s="8">
         <f>I98</f>
@@ -8095,7 +8090,7 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -8111,7 +8106,7 @@
         <v>93</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D99" s="47"/>
       <c r="E99" s="48"/>
@@ -8135,12 +8130,12 @@
         <v>94</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="45"/>
       <c r="F100" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G100" s="8">
         <v>102</v>
@@ -8149,7 +8144,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -8165,16 +8160,16 @@
         <v>95</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E101" s="45">
         <v>1</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G101" s="8">
         <v>1071</v>
@@ -8189,7 +8184,7 @@
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -8206,25 +8201,25 @@
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E102" s="45">
         <v>1</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G102" s="8">
         <f>I102</f>
         <v>0</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -8240,7 +8235,7 @@
         <v>97</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="47"/>
       <c r="E103" s="48"/>
@@ -8264,7 +8259,7 @@
         <v>98</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" s="8">
         <v>1541</v>
@@ -8273,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G104" s="8" t="str">
         <f>"DELETE FROM M_FILE_FORMAT_A WHERE FF_ID = " &amp;D105</f>
@@ -8283,7 +8278,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -8292,7 +8287,7 @@
       <c r="P104" s="12"/>
       <c r="Q104" s="13"/>
       <c r="R104" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="2:18">
@@ -8301,16 +8296,16 @@
         <v>99</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E105" s="45">
         <v>1</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G105" s="8">
         <v>1061</v>
@@ -8325,7 +8320,7 @@
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -8341,16 +8336,16 @@
         <v>100</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="45">
         <v>1</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G106" s="8">
         <f>I106</f>
@@ -8363,7 +8358,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -8379,7 +8374,7 @@
         <v>101</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="48"/>
@@ -8403,7 +8398,7 @@
         <v>102</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D108" s="8">
         <v>1071</v>
@@ -8412,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G108" s="8" t="str">
         <f>"DELETE FROM E_TRANSFER1_A WHERE T_ID1 = " &amp;D109</f>
@@ -8422,7 +8417,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -8431,7 +8426,7 @@
       <c r="P108" s="12"/>
       <c r="Q108" s="13"/>
       <c r="R108" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="2:18">
@@ -8440,7 +8435,7 @@
         <v>103</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D109" s="8">
         <v>1071</v>
@@ -8449,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G109" s="8" t="str">
         <f>"DELETE FROM E_TRANSFER2_A WHERE T_ID1 = " &amp;D110</f>
@@ -8459,7 +8454,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -8468,7 +8463,7 @@
       <c r="P109" s="12"/>
       <c r="Q109" s="13"/>
       <c r="R109" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:18">
@@ -8477,16 +8472,16 @@
         <v>104</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E110" s="45">
         <v>1</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G110" s="8">
         <v>1071</v>
@@ -8501,7 +8496,7 @@
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -8517,16 +8512,16 @@
         <v>105</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E111" s="45">
         <v>1</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G111" s="8">
         <f>I111</f>
@@ -8539,7 +8534,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -8555,7 +8550,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="48"/>
@@ -8579,7 +8574,7 @@
         <v>107</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D113" s="8">
         <v>1541</v>
@@ -8588,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G113" s="8" t="str">
         <f>"DELETE FROM M_UNIQUE_SETTINGS1_A WHERE S_ID1 = " &amp;D114</f>
@@ -8598,7 +8593,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -8614,7 +8609,7 @@
         <v>108</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D114" s="8">
         <v>1541</v>
@@ -8623,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G114" s="8" t="str">
         <f>"DELETE FROM M_UNIQUE_SETTINGS2_A WHERE S_ID1 = " &amp;D115</f>
@@ -8633,7 +8628,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -8649,16 +8644,16 @@
         <v>109</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E115" s="45">
         <v>1</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -8669,7 +8664,7 @@
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -8685,28 +8680,28 @@
         <v>110</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E116" s="45">
         <v>1</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G116" s="8">
         <f>I116</f>
         <v>0</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -8722,7 +8717,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="48"/>
@@ -8746,23 +8741,23 @@
         <v>112</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="45">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="45">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G118" s="8" t="str">
         <f t="shared" ref="G118:G135" si="6">D119</f>
         <v>テーブルB</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I118" s="8" t="str">
         <f t="shared" ref="I118:I128" si="7">",,"&amp;B9</f>
@@ -8770,18 +8765,18 @@
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O118" s="12"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="13"/>
       <c r="R118" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -8790,23 +8785,23 @@
         <v>113</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="45">
+        <v>0</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E119" s="45">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G119" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルC</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I119" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8814,12 +8809,12 @@
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
@@ -8832,23 +8827,23 @@
         <v>114</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="45">
+        <v>0</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" s="45">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G120" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルD</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I120" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8856,12 +8851,12 @@
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O120" s="12"/>
       <c r="P120" s="12"/>
@@ -8874,23 +8869,23 @@
         <v>115</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="45">
+        <v>0</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E121" s="45">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G121" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルE</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I121" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8898,12 +8893,12 @@
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
       <c r="N121" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
@@ -8916,23 +8911,23 @@
         <v>116</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="45">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E122" s="45">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G122" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルF</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I122" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8940,18 +8935,18 @@
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
       <c r="Q122" s="13"/>
       <c r="R122" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="2:18">
@@ -8960,23 +8955,23 @@
         <v>117</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E123" s="45">
+        <v>0</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E123" s="45">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G123" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルG</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I123" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8984,12 +8979,12 @@
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
@@ -9002,23 +8997,23 @@
         <v>118</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="45">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E124" s="45">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G124" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルH</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I124" s="8" t="str">
         <f t="shared" si="7"/>
@@ -9026,12 +9021,12 @@
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
@@ -9044,23 +9039,23 @@
         <v>119</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" s="45">
+        <v>0</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="45">
-        <v>0</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G125" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルI</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I125" s="8" t="str">
         <f t="shared" si="7"/>
@@ -9068,12 +9063,12 @@
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
       <c r="N125" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
@@ -9086,23 +9081,23 @@
         <v>120</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="45">
+        <v>0</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E126" s="45">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G126" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルJ</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I126" s="8" t="str">
         <f t="shared" si="7"/>
@@ -9110,18 +9105,18 @@
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
       <c r="N126" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="13"/>
       <c r="R126" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="2:18">
@@ -9130,23 +9125,23 @@
         <v>121</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="45">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E127" s="45">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G127" s="8" t="str">
         <f t="shared" si="6"/>
         <v>テーブルH</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I127" s="8" t="str">
         <f t="shared" si="7"/>
@@ -9154,12 +9149,12 @@
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
@@ -9172,7 +9167,7 @@
         <v>122</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="8" t="str">
         <f>D16</f>
@@ -9182,14 +9177,14 @@
         <v>0</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G128" s="8" t="str">
         <f t="shared" si="6"/>
         <v>M_FILE_FORMAT_A</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I128" s="8" t="str">
         <f t="shared" si="7"/>
@@ -9197,12 +9192,12 @@
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
@@ -9215,23 +9210,23 @@
         <v>123</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="E129" s="45">
         <v>0</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G129" s="8" t="str">
         <f t="shared" si="6"/>
         <v>E_FORMAT_CHECK1_A</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I129" s="8" t="str">
         <f t="shared" ref="I129:I135" si="8">",,"&amp;B24</f>
@@ -9239,12 +9234,12 @@
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
@@ -9257,23 +9252,23 @@
         <v>124</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="E130" s="45">
         <v>0</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G130" s="8" t="str">
         <f t="shared" si="6"/>
         <v>E_FORMAT_CHECK2_A</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I130" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9281,12 +9276,12 @@
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
@@ -9299,23 +9294,23 @@
         <v>125</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E131" s="45">
         <v>0</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G131" s="8" t="str">
         <f t="shared" si="6"/>
         <v>E_TRANSFER1_A</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I131" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9323,12 +9318,12 @@
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
@@ -9341,23 +9336,23 @@
         <v>126</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="E132" s="45">
         <v>0</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G132" s="8" t="str">
         <f t="shared" si="6"/>
         <v>E_TRANSFER2_A</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I132" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9365,12 +9360,12 @@
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
       <c r="N132" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
@@ -9383,23 +9378,23 @@
         <v>127</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="E133" s="45">
         <v>0</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G133" s="8" t="str">
         <f t="shared" si="6"/>
         <v>M_UNIQUE_SETTINGS1_A</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I133" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9407,12 +9402,12 @@
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
       <c r="N133" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
@@ -9425,23 +9420,23 @@
         <v>128</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="E134" s="45">
         <v>0</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G134" s="8" t="str">
         <f t="shared" si="6"/>
         <v>M_UNIQUE_SETTINGS2_A</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I134" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9449,12 +9444,12 @@
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
       <c r="N134" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
@@ -9467,23 +9462,23 @@
         <v>129</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="E135" s="45">
         <v>0</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I135" s="8" t="str">
         <f t="shared" si="8"/>
@@ -9491,12 +9486,12 @@
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
       <c r="N135" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
@@ -9509,7 +9504,7 @@
         <v>130</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="48"/>
@@ -9533,7 +9528,7 @@
         <v>131</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D137" s="8">
         <v>108</v>
@@ -9542,14 +9537,14 @@
         <v>0</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G137" s="8">
         <f>D138</f>
         <v>0</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I137" s="8" t="str">
         <f>",,"&amp;B8</f>
@@ -9557,26 +9552,26 @@
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
       <c r="N137" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O137" s="12"/>
       <c r="P137" s="12"/>
       <c r="Q137" s="13"/>
       <c r="R137" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="24.75">
       <c r="A139" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="2"/>
@@ -9597,42 +9592,42 @@
     </row>
     <row r="140" spans="1:18">
       <c r="C140" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:18">
       <c r="C141" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:18">
       <c r="C142" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:18">
       <c r="C144" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
